--- a/2° termo/sprint 1 BD/exercicios/1.1 exercicio-pessoas/exercicio1.1.Olivia.xlsx
+++ b/2° termo/sprint 1 BD/exercicios/1.1 exercicio-pessoas/exercicio1.1.Olivia.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{219AA068-520B-468D-9EDC-EB2008059C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47504029823\Desktop\senai-sprint1-BD-main\senai-sprint1-BD\2° termo\sprint 1 BD\exercicios\1.1 exercicio-pessoas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE68CC-0674-4B64-9207-256CD285686B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Pessoa</t>
   </si>
@@ -92,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,48 +207,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -265,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -564,271 +572,263 @@
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="B13:D18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="4">
+      <c r="K3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>111</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>111</v>
       </c>
-      <c r="K4" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="4">
+      <c r="K4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>222</v>
       </c>
-      <c r="G5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>222</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
         <v>333</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>4</v>
       </c>
-      <c r="I6" s="10">
-        <v>3</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
         <v>333</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>4</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>444</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>4</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="7">
         <v>444</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="I8" s="10">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="7">
         <v>5</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <v>555</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="I9" s="10">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I9" s="7">
         <v>6</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <v>666</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="2:11" hidden="1">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="13">
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="13">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="13">
-        <v>3</v>
-      </c>
-      <c r="C15" s="14" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="13">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
         <v>4</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="13">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
         <v>5</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="13">
-        <v>6</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="13">
-        <v>4</v>
-      </c>
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -843,7 +843,6 @@
     <hyperlink ref="C15" r:id="rId3" xr:uid="{4B6881EA-D951-45CA-8B3F-DB7955372732}"/>
     <hyperlink ref="C16" r:id="rId4" xr:uid="{537F5A4D-4026-4898-BA18-8D728C3D3625}"/>
     <hyperlink ref="C17" r:id="rId5" xr:uid="{82A71F6C-D9D3-47FB-BDFE-D61CD69AF91A}"/>
-    <hyperlink ref="C18" r:id="rId6" xr:uid="{F8DD8561-6098-4A05-8AF1-5594A1EEA9C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2° termo/sprint 1 BD/exercicios/1.1 exercicio-pessoas/exercicio1.1.Olivia.xlsx
+++ b/2° termo/sprint 1 BD/exercicios/1.1 exercicio-pessoas/exercicio1.1.Olivia.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24613"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47504029823\Desktop\senai-sprint1-BD-main\senai-sprint1-BD\2° termo\sprint 1 BD\exercicios\1.1 exercicio-pessoas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE68CC-0674-4B64-9207-256CD285686B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{219AA068-520B-468D-9EDC-EB2008059C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Pessoa</t>
   </si>
@@ -97,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,29 +202,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,21 +244,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -273,7 +265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,263 +564,271 @@
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D18" sqref="B13:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="2"/>
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="13" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>111</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="10">
         <v>1</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="10">
         <v>111</v>
       </c>
-      <c r="K4" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="K4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>222</v>
       </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="10">
         <v>2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="10">
         <v>222</v>
       </c>
-      <c r="K5" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="K5" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
         <v>333</v>
       </c>
-      <c r="G6" s="5">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="G6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="10">
+        <v>3</v>
+      </c>
+      <c r="J6" s="10">
         <v>333</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
         <v>444</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="I7" s="10">
+        <v>4</v>
+      </c>
+      <c r="J7" s="10">
         <v>444</v>
       </c>
-      <c r="K7" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I8" s="7">
+      <c r="K7" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="I8" s="10">
         <v>5</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="10">
         <v>555</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I9" s="7">
+    <row r="9" spans="2:11">
+      <c r="I9" s="10">
         <v>6</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="10">
         <v>666</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="2:11">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="2:11" hidden="1">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:11">
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+      <c r="D12" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
+    <row r="14" spans="2:11">
+      <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="10" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" s="13">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
-        <v>4</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="D15" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="13">
+        <v>4</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
+    <row r="17" spans="2:4">
+      <c r="B17" s="13">
         <v>5</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="15"/>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="13">
+        <v>6</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="13">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -843,6 +843,7 @@
     <hyperlink ref="C15" r:id="rId3" xr:uid="{4B6881EA-D951-45CA-8B3F-DB7955372732}"/>
     <hyperlink ref="C16" r:id="rId4" xr:uid="{537F5A4D-4026-4898-BA18-8D728C3D3625}"/>
     <hyperlink ref="C17" r:id="rId5" xr:uid="{82A71F6C-D9D3-47FB-BDFE-D61CD69AF91A}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{F8DD8561-6098-4A05-8AF1-5594A1EEA9C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
